--- a/data/consumption_function.xlsx
+++ b/data/consumption_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\DS JHU\final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BCF14-8E44-45CD-B6D8-2748A2FBCD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E4F12E-781D-44C5-A512-E0BC02FB63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F546B102-1379-4413-A204-7A3BC5A08871}"/>
+    <workbookView xWindow="3105" yWindow="3105" windowWidth="2400" windowHeight="585" xr2:uid="{F546B102-1379-4413-A204-7A3BC5A08871}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Household consumption expenditures7</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
   </si>
   <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>Final consumption expenditures of nonprofit institutions serving households (NPISHs)1</t>
   </si>
   <si>
     <t>45</t>
@@ -367,6 +361,14 @@
   </si>
   <si>
     <t>Functions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Household consumption expenditures7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final consumption expenditures of nonprofit institutions serving households (NPISHs)1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -778,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00618572-3F4E-43CC-9D72-6ED03867BF99}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,40 +794,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2104,7 +2106,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1">
         <v>13719456</v>
@@ -2142,10 +2144,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>1013441</v>
@@ -2183,10 +2185,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C35" s="1">
         <v>409766</v>
@@ -2224,10 +2226,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C36" s="1">
         <v>2555742</v>
@@ -2265,10 +2267,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="1">
         <v>588433</v>
@@ -2306,10 +2308,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="1">
         <v>3012818</v>
@@ -2347,10 +2349,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>1282544</v>
@@ -2388,10 +2390,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>277106</v>
@@ -2429,10 +2431,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>1233136</v>
@@ -2470,10 +2472,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>303961</v>
@@ -2511,10 +2513,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="1">
         <v>986910</v>
@@ -2552,10 +2554,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C44" s="1">
         <v>1156285</v>
@@ -2593,10 +2595,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C45" s="1">
         <v>912246</v>
@@ -2634,10 +2636,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C46" s="1">
         <v>-12932</v>
@@ -2675,10 +2677,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1">
         <v>436096</v>
@@ -2716,10 +2718,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>1625067</v>
@@ -2757,10 +2759,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1">
         <v>1188971</v>
